--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam2-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam2-Itgb7.xlsx
@@ -543,10 +543,10 @@
         <v>0.040137</v>
       </c>
       <c r="I2">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J2">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.135193666666667</v>
+        <v>2.113523666666667</v>
       </c>
       <c r="N2">
-        <v>3.405581</v>
+        <v>6.340571000000001</v>
       </c>
       <c r="O2">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="P2">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="Q2">
-        <v>0.01518775606633333</v>
+        <v>0.02827683313633334</v>
       </c>
       <c r="R2">
-        <v>0.136689804597</v>
+        <v>0.254491498227</v>
       </c>
       <c r="S2">
-        <v>0.06396318137792231</v>
+        <v>0.06877538683721407</v>
       </c>
       <c r="T2">
-        <v>0.06396318137792231</v>
+        <v>0.06877538683721406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.040137</v>
       </c>
       <c r="I3">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J3">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>6.862098</v>
       </c>
       <c r="O3">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="P3">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="Q3">
         <v>0.030602669714</v>
@@ -635,10 +635,10 @@
         <v>0.275424027426</v>
       </c>
       <c r="S3">
-        <v>0.12888303611251</v>
+        <v>0.07443232549006594</v>
       </c>
       <c r="T3">
-        <v>0.12888303611251</v>
+        <v>0.07443232549006593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.040137</v>
       </c>
       <c r="I4">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J4">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8212579999999999</v>
+        <v>1.164746666666667</v>
       </c>
       <c r="N4">
-        <v>2.463774</v>
+        <v>3.49424</v>
       </c>
       <c r="O4">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059967</v>
       </c>
       <c r="P4">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059966</v>
       </c>
       <c r="Q4">
-        <v>0.010987610782</v>
+        <v>0.01558314565333333</v>
       </c>
       <c r="R4">
-        <v>0.098888497038</v>
+        <v>0.14024831088</v>
       </c>
       <c r="S4">
-        <v>0.046274284251706</v>
+        <v>0.03790158768067842</v>
       </c>
       <c r="T4">
-        <v>0.046274284251706</v>
+        <v>0.03790158768067841</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.040137</v>
       </c>
       <c r="I5">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="J5">
-        <v>0.4159662559202413</v>
+        <v>0.2594103048008066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.138589666666667</v>
+        <v>2.406253666666667</v>
       </c>
       <c r="N5">
-        <v>9.415769000000001</v>
+        <v>7.218761</v>
       </c>
       <c r="O5">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="P5">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="Q5">
-        <v>0.04199119115033333</v>
+        <v>0.03219326780633334</v>
       </c>
       <c r="R5">
-        <v>0.377920720353</v>
+        <v>0.289739410257</v>
       </c>
       <c r="S5">
-        <v>0.176845754178103</v>
+        <v>0.07830100479284818</v>
       </c>
       <c r="T5">
-        <v>0.176845754178103</v>
+        <v>0.07830100479284816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H6">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I6">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J6">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.135193666666667</v>
+        <v>2.113523666666667</v>
       </c>
       <c r="N6">
-        <v>3.405581</v>
+        <v>6.340571000000001</v>
       </c>
       <c r="O6">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="P6">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="Q6">
-        <v>0.02132423463044444</v>
+        <v>0.08072744546411112</v>
       </c>
       <c r="R6">
-        <v>0.191918111674</v>
+        <v>0.726547009177</v>
       </c>
       <c r="S6">
-        <v>0.08980693931712469</v>
+        <v>0.1963466440320863</v>
       </c>
       <c r="T6">
-        <v>0.08980693931712469</v>
+        <v>0.1963466440320863</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H7">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I7">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J7">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>6.862098</v>
       </c>
       <c r="O7">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="P7">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="Q7">
-        <v>0.04296740785466666</v>
+        <v>0.08736746928066666</v>
       </c>
       <c r="R7">
-        <v>0.3867066706919999</v>
+        <v>0.7863072235259999</v>
       </c>
       <c r="S7">
-        <v>0.1809570874027553</v>
+        <v>0.2124966210960008</v>
       </c>
       <c r="T7">
-        <v>0.1809570874027553</v>
+        <v>0.2124966210960008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H8">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I8">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J8">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8212579999999999</v>
+        <v>1.164746666666667</v>
       </c>
       <c r="N8">
-        <v>2.463774</v>
+        <v>3.49424</v>
       </c>
       <c r="O8">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059967</v>
       </c>
       <c r="P8">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059966</v>
       </c>
       <c r="Q8">
-        <v>0.01542705777733333</v>
+        <v>0.04448827543111111</v>
       </c>
       <c r="R8">
-        <v>0.138843519996</v>
+        <v>0.40039447888</v>
       </c>
       <c r="S8">
-        <v>0.06497099969406382</v>
+        <v>0.1082051281253182</v>
       </c>
       <c r="T8">
-        <v>0.06497099969406382</v>
+        <v>0.1082051281253182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.01878466666666666</v>
+        <v>0.03819566666666666</v>
       </c>
       <c r="H9">
-        <v>0.05635399999999999</v>
+        <v>0.114587</v>
       </c>
       <c r="I9">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="J9">
-        <v>0.5840337440797587</v>
+        <v>0.7405896951991934</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.138589666666667</v>
+        <v>2.406253666666667</v>
       </c>
       <c r="N9">
-        <v>9.415769000000001</v>
+        <v>7.218761</v>
       </c>
       <c r="O9">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="P9">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="Q9">
-        <v>0.05895736069177777</v>
+        <v>0.09190846296744444</v>
       </c>
       <c r="R9">
-        <v>0.530616246226</v>
+        <v>0.8271761667069999</v>
       </c>
       <c r="S9">
-        <v>0.248298717665815</v>
+        <v>0.223541301945788</v>
       </c>
       <c r="T9">
-        <v>0.248298717665815</v>
+        <v>0.223541301945788</v>
       </c>
     </row>
   </sheetData>
